--- a/biology/Zoologie/Erythrocharax_altipinnis/Erythrocharax_altipinnis.xlsx
+++ b/biology/Zoologie/Erythrocharax_altipinnis/Erythrocharax_altipinnis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrocharax
 Erythrocharax altipinnis, unique représentant du genre Erythrocharax, est une espèce de poissons d'eau douce téléostéens de la famille des Characidae (ordre des Characiformes).
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrocharax altipinnis est endémique de l’État du Pará au Brésil[1]. Il se rencontre dans le rio Curuá[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrocharax altipinnis est endémique de l’État du Pará au Brésil. Il se rencontre dans le rio Curuá.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrocharax altipinnis peut mesurer jusqu'à 26 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrocharax altipinnis peut mesurer jusqu'à 26 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Erythrocharax et l'espèce Erythrocharax altipinnis ont été décrits en 2013 par les ichtyologistes brésiliens André Luiz Netto-Ferreira (d),
-José Luís Olivan Birindelli (d), Leandro Melo de Sousa (d), Tatiane Casagrande Mariguela (d) et Claudio Oliveira (d)[2],[3].
+José Luís Olivan Birindelli (d), Leandro Melo de Sousa (d), Tatiane Casagrande Mariguela (d) et Claudio Oliveira (d),.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Erythrocharax, dérive du grec ancien ἐρυθρός, éruthrós, « rouge », qui fait référence au rouge vif de la nageoire adipeuse et de la nageoire caudale de cette espèce, et du suffixe charax commun à de nombreux genres de Characiformes[4].
-Son épithète spécifique, du latin altus, « haut », et pinna, « nageoire », fait référence aux rayons allongés de la nageoire dorsale des mâles[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Erythrocharax, dérive du grec ancien ἐρυθρός, éruthrós, « rouge », qui fait référence au rouge vif de la nageoire adipeuse et de la nageoire caudale de cette espèce, et du suffixe charax commun à de nombreux genres de Characiformes.
+Son épithète spécifique, du latin altus, « haut », et pinna, « nageoire », fait référence aux rayons allongés de la nageoire dorsale des mâles.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) André Luiz Netto-Ferreira, José Luís Olivan Birindelli, Leandro Melo de Sousa, Tatiane Casagrande Mariguela et Claudio Oliveira, « A new miniature characid (Ostariophysi: Characiformes: Characidae), with phylogenetic position inferred from morphological and molecular data », PLOS One, PLoS, vol. 8, no 1,‎ 2 janvier 2013, e52098 (ISSN 1932-6203, OCLC 228234657, PMID 23300963, PMCID 3534666, DOI 10.1371/JOURNAL.PONE.0052098)</t>
         </is>
